--- a/test2.xlsx
+++ b/test2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivareddy/Desktop/Dashboard_APP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10B5E9C-EBC5-7F4B-8933-051F9901C997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36962724-2B78-904E-8C82-EAE8647B3BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38420" yWindow="21340" windowWidth="14400" windowHeight="9780" xr2:uid="{A652C339-C7CD-7D48-8F5C-B101DE41CA99}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="29020" windowHeight="13420" xr2:uid="{A652C339-C7CD-7D48-8F5C-B101DE41CA99}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Community</t>
   </si>
@@ -97,16 +97,26 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Y.Wang</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -132,11 +142,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E30B7DC-82AC-6B4E-BB23-A33322621F98}">
-  <dimension ref="B2:L8"/>
+  <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,7 +605,7 @@
         <v>44547</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" ref="K4:K8" si="0">J5 + 2</f>
+        <f t="shared" ref="K5" si="0">J5 + 2</f>
         <v>44549</v>
       </c>
       <c r="L5">
@@ -653,7 +666,7 @@
         <v>44607</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J7" s="1">
         <f>H7 + 7</f>
@@ -695,6 +708,70 @@
         <v>44645</v>
       </c>
       <c r="L8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>44635</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1">
+        <f>H9 + 7</f>
+        <v>44642</v>
+      </c>
+      <c r="K9" s="1">
+        <f>J9 + 3</f>
+        <v>44645</v>
+      </c>
+      <c r="L9">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>59</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6">
+        <v>44635</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="6">
+        <v>44642</v>
+      </c>
+      <c r="K10" s="6">
+        <v>44645</v>
+      </c>
+      <c r="L10" s="4">
         <v>1500</v>
       </c>
     </row>
